--- a/matrice_temps/horaire_A.xlsx
+++ b/matrice_temps/horaire_A.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Documents\pythonProject\matrice_temps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD16D185-852B-4D87-8485-9E7A3802087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="360" windowWidth="18510" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="equipes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Equipes</t>
   </si>
@@ -86,6 +80,9 @@
   </si>
   <si>
     <t>K. Durant</t>
+  </si>
+  <si>
+    <t>Semaine 13</t>
   </si>
   <si>
     <t>Lundi</t>
@@ -133,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,14 +186,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,27 +264,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,24 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,18 +473,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="2" max="10" width="15.7109375" customWidth="1"/>
+    <col min="3" max="10" width="15.7109375" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="10" width="15.7109375" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" customWidth="1"/>
+    <col min="7" max="10" width="15.7109375" customWidth="1"/>
+    <col min="8" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -578,7 +537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -589,7 +548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -600,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -611,50 +570,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
+      <c r="H11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/matrice_temps/horaire_A.xlsx
+++ b/matrice_temps/horaire_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Equipes</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>Modèle repartition concentre</t>
   </si>
 </sst>
 </file>
@@ -474,149 +477,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="10" width="15.7109375" customWidth="1"/>
     <col min="3" max="10" width="15.7109375" customWidth="1"/>
     <col min="4" max="10" width="15.7109375" customWidth="1"/>
     <col min="5" max="10" width="15.7109375" customWidth="1"/>
     <col min="6" max="10" width="15.7109375" customWidth="1"/>
     <col min="7" max="10" width="15.7109375" customWidth="1"/>
     <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
